--- a/25-2_Horyeong/Assets/Resources/Intro.xlsx
+++ b/25-2_Horyeong/Assets/Resources/Intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEO\Documents\GitHub\25-2_Horyeong_2\25-2_Horyeong\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E12AD8-8E64-46DB-9045-319FBAA0ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAE44D6-5A3B-4A4A-8239-A8B106017495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{19CCF121-EBC0-4035-A177-744EEB01DD00}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>Intro_032</t>
+  </si>
+  <si>
+    <t>changeImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -699,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BDD932-AFFE-46AC-83C0-0382104AA0D5}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.4140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -711,7 +715,7 @@
     <col min="2" max="16384" width="9.4140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,8 +740,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -753,8 +760,11 @@
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -770,8 +780,11 @@
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -787,8 +800,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,8 +820,11 @@
       <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -821,8 +840,11 @@
       <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -838,8 +860,11 @@
       <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -855,8 +880,11 @@
       <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -872,8 +900,11 @@
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -889,8 +920,11 @@
       <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -906,8 +940,11 @@
       <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -923,8 +960,11 @@
       <c r="H12" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -940,8 +980,11 @@
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -957,8 +1000,11 @@
       <c r="H14" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -974,8 +1020,11 @@
       <c r="H15" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -991,8 +1040,11 @@
       <c r="H16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1008,8 +1060,11 @@
       <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1025,8 +1080,11 @@
       <c r="H18" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1042,8 +1100,11 @@
       <c r="H19" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1059,8 +1120,11 @@
       <c r="H20" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1076,8 +1140,11 @@
       <c r="H21" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1093,8 +1160,11 @@
       <c r="H22" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1110,8 +1180,11 @@
       <c r="H23" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1127,8 +1200,11 @@
       <c r="H24" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1144,8 +1220,11 @@
       <c r="H25" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1161,8 +1240,11 @@
       <c r="H26" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -1178,8 +1260,11 @@
       <c r="H27" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1195,8 +1280,11 @@
       <c r="H28" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1212,8 +1300,11 @@
       <c r="H29" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1229,8 +1320,11 @@
       <c r="H30" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1246,8 +1340,11 @@
       <c r="H31" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -1263,8 +1360,11 @@
       <c r="H32" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1277,6 +1377,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
